--- a/reports/metadados.xlsx
+++ b/reports/metadados.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>43088.25396520834</v>
+        <v>43095.25403858796</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B3" s="2">
-        <v>43088.25403201389</v>
+        <v>43095.26217591435</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43088.25396538194</v>
+        <v>43095.25407776621</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43088.30489252315</v>
+        <v>43095.30489219908</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -455,6 +455,24 @@
         </is>
       </c>
       <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Execução de Créditos Adicionais</t>
+        </is>
+      </c>
+      <c r="B6" s="2">
+        <v>43083.38618702546</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>12</v>
       </c>
     </row>

--- a/reports/metadados.xlsx
+++ b/reports/metadados.xlsx
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>43095.25403858796</v>
+        <v>43096.27557086806</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B3" s="2">
-        <v>43095.26217591435</v>
+        <v>43096.26354832176</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43095.25407776621</v>
+        <v>43096.26338003473</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43095.30489219908</v>
+        <v>43096.30358568287</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/reports/metadados.xlsx
+++ b/reports/metadados.xlsx
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>43096.27557086806</v>
+        <v>43097.26338454861</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B3" s="2">
-        <v>43096.26354832176</v>
+        <v>43097.27128064814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43096.26338003473</v>
+        <v>43097.27089083333</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43096.30358568287</v>
+        <v>43097.30682739583</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
